--- a/tests/Unit/Service/FileReader/inventory-with-empty-row.xlsx
+++ b/tests/Unit/Service/FileReader/inventory-with-empty-row.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Family</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Beoordelingsgrond</t>
   </si>
   <si>
-    <t>Onderwerp</t>
-  </si>
-  <si>
     <t>Periode</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>5.1.2e</t>
-  </si>
-  <si>
-    <t>Dummy onderwerp 1</t>
   </si>
   <si>
     <t>2022-08</t>
@@ -1386,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1398,10 +1392,9 @@
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.6719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6719" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6719" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85156" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1429,7 +1422,7 @@
       <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
       <c r="J1" t="s" s="2">
@@ -1437,45 +1430,39 @@
       </c>
       <c r="K1" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="F2" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="G2" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="H2" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="I2" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="6">
+      <c r="J2" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="K2" t="s" s="4">
         <v>19</v>
-      </c>
-      <c r="K2" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s" s="4">
-        <v>21</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1">
@@ -1487,39 +1474,37 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
     </row>
     <row r="4" ht="45" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" t="s" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" t="s" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="H4" t="s" s="9">
+      <c r="I4" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="I4" s="9"/>
       <c r="J4" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s" s="7">
         <v>19</v>
-      </c>
-      <c r="K4" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s" s="7">
-        <v>21</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
@@ -1533,8 +1518,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="13"/>
@@ -1547,8 +1531,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="13"/>
@@ -1561,8 +1544,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="13"/>
@@ -1575,8 +1557,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="13"/>
@@ -1589,8 +1570,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="13"/>
@@ -1603,8 +1583,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" s="16"/>
@@ -1617,8 +1596,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
